--- a/data/assets_classes.xlsx
+++ b/data/assets_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\folio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43364F59-65B8-4160-836F-8A19314288E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7F340-3CDE-446E-8C31-9510ACEC347B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Assets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,145 +35,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石油石化指数</t>
-  </si>
-  <si>
-    <t>煤炭指数</t>
-  </si>
-  <si>
-    <t>有色金属指数</t>
-  </si>
-  <si>
-    <t>电力及公用事业指数</t>
-  </si>
-  <si>
-    <t>钢铁指数</t>
-  </si>
-  <si>
-    <t>基础化工指数</t>
-  </si>
-  <si>
-    <t>建筑指数</t>
-  </si>
-  <si>
-    <t>建材指数</t>
-  </si>
-  <si>
-    <t>轻工制造指数</t>
-  </si>
-  <si>
-    <t>机械指数</t>
-  </si>
-  <si>
-    <t>电力设备及新能源指数</t>
-  </si>
-  <si>
-    <t>国防军工指数</t>
-  </si>
-  <si>
-    <t>汽车指数</t>
-  </si>
-  <si>
-    <t>商贸零售指数</t>
-  </si>
-  <si>
-    <t>消费者服务指数</t>
-  </si>
-  <si>
-    <t>家电指数</t>
-  </si>
-  <si>
-    <t>纺织服装指数</t>
-  </si>
-  <si>
-    <t>医药指数</t>
-  </si>
-  <si>
-    <t>食品饮料指数</t>
-  </si>
-  <si>
-    <t>农林牧渔指数</t>
-  </si>
-  <si>
-    <t>银行指数</t>
-  </si>
-  <si>
-    <t>非银行金融指数</t>
-  </si>
-  <si>
-    <t>房地产指数</t>
-  </si>
-  <si>
-    <t>交通运输指数</t>
-  </si>
-  <si>
-    <t>电子指数</t>
-  </si>
-  <si>
-    <t>通信指数</t>
-  </si>
-  <si>
-    <t>计算机指数</t>
-  </si>
-  <si>
-    <t>传媒指数</t>
-  </si>
-  <si>
-    <t>综合指数</t>
-  </si>
-  <si>
-    <t>综合金融指数</t>
-  </si>
-  <si>
-    <t>能源化工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属冶炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑施工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医药医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农林牧渔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文化传媒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合产业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CTA_Trend_Index</t>
+  </si>
+  <si>
+    <t>CTA趋势精选指数</t>
+  </si>
+  <si>
+    <t>对冲策略精选指数</t>
+  </si>
+  <si>
+    <t>股票策略精选指数</t>
+  </si>
+  <si>
+    <t>宏观策略精选指数</t>
+  </si>
+  <si>
+    <t>市场中性精选指数</t>
+  </si>
+  <si>
+    <t>事件驱动精选指数</t>
+  </si>
+  <si>
+    <t>套利策略精选指数</t>
+  </si>
+  <si>
+    <t>债券基金精选指数</t>
+  </si>
+  <si>
+    <t>Bond_Fund_Index</t>
+  </si>
+  <si>
+    <t>Hedging_Strategy_Index</t>
+  </si>
+  <si>
+    <t>Stock_Strategy_Index</t>
+  </si>
+  <si>
+    <t>Macro_Strategy_Index</t>
+  </si>
+  <si>
+    <t>Market_Neutral_Index</t>
+  </si>
+  <si>
+    <t>Event_Driven_Index</t>
+  </si>
+  <si>
+    <t>Arbitrage_Strategy_Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +101,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,10 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,12 +440,12 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,241 +461,131 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
